--- a/Progres Marketing JRP.xlsx
+++ b/Progres Marketing JRP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="108">
   <si>
     <t>No</t>
   </si>
@@ -327,22 +327,19 @@
     <t>fungsi print</t>
   </si>
   <si>
-    <t>cetak surat</t>
-  </si>
-  <si>
     <t>Koordinator Tim Pengembang</t>
   </si>
   <si>
     <t>Yiyi Supendi</t>
   </si>
   <si>
-    <t>PT. ADM Bandung 10 Juni 2015</t>
-  </si>
-  <si>
     <t>PROGRES PENGERJAAN APLIKASI MARKETING JAYA REAL PROPERTY</t>
   </si>
   <si>
-    <t>TANGGAL 10 JUNI 2015</t>
+    <t>TANGGAL 16 JUNI 2015</t>
+  </si>
+  <si>
+    <t>PT. ADM Bandung 16 Juni 2015</t>
   </si>
 </sst>
 </file>
@@ -417,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -440,12 +437,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -459,15 +469,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -484,6 +485,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -788,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,61 +813,61 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
@@ -866,13 +877,13 @@
       <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -889,7 +900,7 @@
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
@@ -904,7 +915,7 @@
       <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
@@ -919,7 +930,7 @@
       <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
@@ -934,7 +945,7 @@
       <c r="B13" s="3">
         <v>5</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
@@ -949,7 +960,7 @@
       <c r="B14" s="3">
         <v>6</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="3" t="s">
         <v>14</v>
       </c>
@@ -964,7 +975,7 @@
       <c r="B15" s="3">
         <v>7</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
@@ -979,7 +990,7 @@
       <c r="B16" s="3">
         <v>8</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
@@ -994,7 +1005,7 @@
       <c r="B17" s="3">
         <v>9</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1009,7 +1020,7 @@
       <c r="B18" s="3">
         <v>10</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1035,7 @@
       <c r="B19" s="3">
         <v>11</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1039,7 +1050,7 @@
       <c r="B20" s="3">
         <v>12</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1065,7 @@
       <c r="B21" s="3">
         <v>13</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1071,7 +1082,7 @@
       <c r="B22" s="3">
         <v>14</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1086,7 +1097,7 @@
       <c r="B23" s="3">
         <v>15</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1103,7 +1114,7 @@
       <c r="B24" s="3">
         <v>16</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1118,7 +1129,7 @@
       <c r="B25" s="3">
         <v>17</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1133,7 +1144,7 @@
       <c r="B26" s="3">
         <v>18</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1148,7 +1159,7 @@
       <c r="B27" s="3">
         <v>19</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
@@ -1160,15 +1171,15 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
@@ -1191,16 +1202,15 @@
       <c r="B30" s="3">
         <v>21</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="3"/>
+      <c r="F30" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
         <v>102</v>
@@ -1210,7 +1220,7 @@
       <c r="B31" s="3">
         <v>22</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="3" t="s">
         <v>34</v>
       </c>
@@ -1225,7 +1235,7 @@
       <c r="B32" s="3">
         <v>23</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="3" t="s">
         <v>35</v>
       </c>
@@ -1240,7 +1250,7 @@
       <c r="B33" s="3">
         <v>24</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="3" t="s">
         <v>36</v>
       </c>
@@ -1255,7 +1265,7 @@
       <c r="B34" s="3">
         <v>25</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1270,7 +1280,7 @@
       <c r="B35" s="3">
         <v>26</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -1287,7 +1297,7 @@
       <c r="B36" s="3">
         <v>27</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="3" t="s">
         <v>40</v>
       </c>
@@ -1304,7 +1314,7 @@
       <c r="B37" s="3">
         <v>28</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="3" t="s">
         <v>41</v>
       </c>
@@ -1321,7 +1331,7 @@
       <c r="B38" s="3">
         <v>29</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="3" t="s">
         <v>42</v>
       </c>
@@ -1338,7 +1348,7 @@
       <c r="B39" s="3">
         <v>30</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="3" t="s">
         <v>43</v>
       </c>
@@ -1352,21 +1362,21 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>31</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -1383,7 +1393,7 @@
       <c r="B42" s="3">
         <v>32</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="3" t="s">
         <v>46</v>
       </c>
@@ -1398,7 +1408,7 @@
       <c r="B43" s="3">
         <v>33</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="3" t="s">
         <v>47</v>
       </c>
@@ -1413,37 +1423,35 @@
       <c r="B44" s="3">
         <v>34</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>35</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>36</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -1454,15 +1462,13 @@
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>37</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="13"/>
       <c r="D47" s="3" t="s">
         <v>52</v>
       </c>
@@ -1471,15 +1477,13 @@
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>38</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="13"/>
       <c r="D48" s="3" t="s">
         <v>53</v>
       </c>
@@ -1488,15 +1492,13 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>39</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="3" t="s">
         <v>54</v>
       </c>
@@ -1505,15 +1507,13 @@
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>40</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="3" t="s">
         <v>55</v>
       </c>
@@ -1522,15 +1522,13 @@
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>41</v>
       </c>
-      <c r="C51" s="10"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="3" t="s">
         <v>56</v>
       </c>
@@ -1539,192 +1537,189 @@
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>42</v>
       </c>
-      <c r="C52" s="10"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="G52" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="E52" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>43</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="3"/>
+      <c r="E53" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F53" s="3"/>
-      <c r="G53" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>44</v>
       </c>
-      <c r="C54" s="10"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="3"/>
+      <c r="E54" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F54" s="3"/>
-      <c r="G54" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>45</v>
       </c>
-      <c r="C55" s="10"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F55" s="3"/>
-      <c r="G55" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>46</v>
       </c>
-      <c r="C56" s="10"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="3"/>
+      <c r="E56" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F56" s="3"/>
-      <c r="G56" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>47</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E57" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F57" s="3"/>
-      <c r="G57" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>48</v>
       </c>
-      <c r="C58" s="10"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F58" s="3"/>
-      <c r="G58" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>49</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="E59" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="16"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>50</v>
       </c>
-      <c r="C60" s="10"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="F60" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>51</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="F61" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>52</v>
       </c>
-      <c r="C62" s="10"/>
+      <c r="C62" s="13"/>
       <c r="D62" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F62" s="3"/>
-      <c r="G62" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>53</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -1741,7 +1736,7 @@
       <c r="B65" s="3">
         <v>54</v>
       </c>
-      <c r="C65" s="10"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="3" t="s">
         <v>69</v>
       </c>
@@ -1756,7 +1751,7 @@
       <c r="B66" s="3">
         <v>55</v>
       </c>
-      <c r="C66" s="10"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="3" t="s">
         <v>70</v>
       </c>
@@ -1771,7 +1766,7 @@
       <c r="B67" s="3">
         <v>56</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="3" t="s">
         <v>71</v>
       </c>
@@ -1780,13 +1775,15 @@
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="H67" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>57</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -1805,7 +1802,7 @@
       <c r="B69" s="3">
         <v>58</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="13"/>
       <c r="D69" s="3" t="s">
         <v>73</v>
       </c>
@@ -1819,21 +1816,21 @@
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>59</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -1850,7 +1847,7 @@
       <c r="B72" s="3">
         <v>60</v>
       </c>
-      <c r="C72" s="10"/>
+      <c r="C72" s="13"/>
       <c r="D72" s="3" t="s">
         <v>76</v>
       </c>
@@ -1865,7 +1862,7 @@
       <c r="B73" s="3">
         <v>61</v>
       </c>
-      <c r="C73" s="10"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="3" t="s">
         <v>77</v>
       </c>
@@ -1880,7 +1877,7 @@
       <c r="B74" s="3">
         <v>62</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C74" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -1899,7 +1896,7 @@
       <c r="B75" s="3">
         <v>63</v>
       </c>
-      <c r="C75" s="10"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="3" t="s">
         <v>79</v>
       </c>
@@ -1916,7 +1913,7 @@
       <c r="B76" s="3">
         <v>64</v>
       </c>
-      <c r="C76" s="10"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="3" t="s">
         <v>80</v>
       </c>
@@ -1933,7 +1930,7 @@
       <c r="B77" s="3">
         <v>65</v>
       </c>
-      <c r="C77" s="10"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="3" t="s">
         <v>81</v>
       </c>
@@ -1950,7 +1947,7 @@
       <c r="B78" s="3">
         <v>66</v>
       </c>
-      <c r="C78" s="10"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="3" t="s">
         <v>82</v>
       </c>
@@ -1964,21 +1961,21 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
     </row>
     <row r="80" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>67</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -1995,7 +1992,7 @@
       <c r="B81" s="3">
         <v>68</v>
       </c>
-      <c r="C81" s="10"/>
+      <c r="C81" s="13"/>
       <c r="D81" s="3" t="s">
         <v>85</v>
       </c>
@@ -2010,7 +2007,7 @@
       <c r="B82" s="3">
         <v>69</v>
       </c>
-      <c r="C82" s="10"/>
+      <c r="C82" s="13"/>
       <c r="D82" s="3" t="s">
         <v>86</v>
       </c>
@@ -2025,7 +2022,7 @@
       <c r="B83" s="3">
         <v>70</v>
       </c>
-      <c r="C83" s="10"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="3" t="s">
         <v>87</v>
       </c>
@@ -2040,7 +2037,7 @@
       <c r="B84" s="3">
         <v>71</v>
       </c>
-      <c r="C84" s="10"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="3" t="s">
         <v>88</v>
       </c>
@@ -2055,7 +2052,7 @@
       <c r="B85" s="3">
         <v>72</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -2072,7 +2069,7 @@
       <c r="B86" s="3">
         <v>73</v>
       </c>
-      <c r="C86" s="10"/>
+      <c r="C86" s="13"/>
       <c r="D86" s="3" t="s">
         <v>90</v>
       </c>
@@ -2087,7 +2084,7 @@
       <c r="B87" s="3">
         <v>74</v>
       </c>
-      <c r="C87" s="10"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="3" t="s">
         <v>91</v>
       </c>
@@ -2102,7 +2099,7 @@
       <c r="B88" s="3">
         <v>75</v>
       </c>
-      <c r="C88" s="10"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="3" t="s">
         <v>92</v>
       </c>
@@ -2117,7 +2114,7 @@
       <c r="B89" s="3">
         <v>76</v>
       </c>
-      <c r="C89" s="10"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="3" t="s">
         <v>93</v>
       </c>
@@ -2132,7 +2129,7 @@
       <c r="B90" s="3">
         <v>77</v>
       </c>
-      <c r="C90" s="10"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="3" t="s">
         <v>94</v>
       </c>
@@ -2164,7 +2161,7 @@
       <c r="B92" s="3">
         <v>79</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -2181,7 +2178,7 @@
       <c r="B93" s="3">
         <v>80</v>
       </c>
-      <c r="C93" s="10"/>
+      <c r="C93" s="13"/>
       <c r="D93" s="3" t="s">
         <v>97</v>
       </c>
@@ -2196,7 +2193,7 @@
       <c r="B94" s="3">
         <v>81</v>
       </c>
-      <c r="C94" s="10"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="3" t="s">
         <v>98</v>
       </c>
@@ -2211,7 +2208,7 @@
       <c r="B95" s="3">
         <v>82</v>
       </c>
-      <c r="C95" s="10"/>
+      <c r="C95" s="13"/>
       <c r="D95" s="3" t="s">
         <v>99</v>
       </c>
@@ -2223,31 +2220,43 @@
       <c r="H95" s="3"/>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98" s="11" t="s">
-        <v>106</v>
+      <c r="F98" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99" s="11" t="s">
+      <c r="F99" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="10" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100" s="12"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="12"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102" s="12"/>
-    </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103" s="13" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="C64:C67"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="C92:C95"/>
@@ -2264,18 +2273,6 @@
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B63:H63"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="C53:C62"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Progres Marketing JRP.xlsx
+++ b/Progres Marketing JRP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
   <si>
     <t>No</t>
   </si>
@@ -270,63 +270,21 @@
     <t>MODUL UTILITAS</t>
   </si>
   <si>
-    <t>Nomor Customer</t>
-  </si>
-  <si>
-    <t>Kartu Pembeli</t>
-  </si>
-  <si>
-    <t>SPP Belum Distribusi</t>
-  </si>
-  <si>
-    <t>SPP Redistribusi</t>
-  </si>
-  <si>
-    <t>Ekspor Data SPP</t>
-  </si>
-  <si>
     <t>Parameter Program</t>
   </si>
   <si>
-    <t>Nomor Surat</t>
-  </si>
-  <si>
-    <t>Parameter Nomor dan Surat Pemberitahuan dan Pembatalan</t>
-  </si>
-  <si>
-    <t>Update Tanggal Surat dan Perpanjang Pengurusan SPK</t>
-  </si>
-  <si>
-    <t>SPP Tidak Valid</t>
-  </si>
-  <si>
-    <t>Denda Manual</t>
-  </si>
-  <si>
     <t>Kwitansi</t>
   </si>
   <si>
-    <t>Update Nomor Register</t>
-  </si>
-  <si>
-    <t>Update Tarif Denda</t>
-  </si>
-  <si>
     <t>Cetak Kartu Pembeli</t>
   </si>
   <si>
-    <t>Penomoran Faktur Pajak</t>
-  </si>
-  <si>
     <t>Keterangan</t>
   </si>
   <si>
     <t>ü</t>
   </si>
   <si>
-    <t>fungsi print</t>
-  </si>
-  <si>
     <t>Koordinator Tim Pengembang</t>
   </si>
   <si>
@@ -336,10 +294,46 @@
     <t>PROGRES PENGERJAAN APLIKASI MARKETING JAYA REAL PROPERTY</t>
   </si>
   <si>
-    <t>TANGGAL 16 JUNI 2015</t>
-  </si>
-  <si>
     <t>PT. ADM Bandung 16 Juni 2015</t>
+  </si>
+  <si>
+    <t>Master Virtual Account</t>
+  </si>
+  <si>
+    <t>Download Tagihan Untuk Bank</t>
+  </si>
+  <si>
+    <t>Pengurusan SPK</t>
+  </si>
+  <si>
+    <t>Akad Kredit</t>
+  </si>
+  <si>
+    <t>SPK Review</t>
+  </si>
+  <si>
+    <t>Perubahan Plafon</t>
+  </si>
+  <si>
+    <t>Penolakan Kredit</t>
+  </si>
+  <si>
+    <t>Pemulihan SPP Tenggang</t>
+  </si>
+  <si>
+    <t>Upload Penerimaan Virtual Account</t>
+  </si>
+  <si>
+    <t>Parameter Nomor Register</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Ubah Password</t>
+  </si>
+  <si>
+    <t>TANGGAL 30 JUNI 2015</t>
   </si>
 </sst>
 </file>
@@ -350,7 +344,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,12 +362,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B050"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
@@ -414,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -450,12 +438,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -467,34 +479,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -799,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,61 +832,61 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15" t="s">
-        <v>100</v>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
@@ -877,7 +896,7 @@
       <c r="G8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -890,7 +909,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -905,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -920,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -935,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -950,7 +969,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -965,7 +984,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -980,7 +999,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -995,7 +1014,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1010,7 +1029,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1025,7 +1044,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1040,7 +1059,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1055,7 +1074,7 @@
         <v>20</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1065,14 +1084,12 @@
       <c r="B21" s="3">
         <v>13</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>22</v>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16" t="s">
+        <v>93</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1082,12 +1099,14 @@
       <c r="B22" s="3">
         <v>14</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1097,14 +1116,12 @@
       <c r="B23" s="3">
         <v>15</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="C23" s="13"/>
       <c r="D23" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1114,12 +1131,14 @@
       <c r="B24" s="3">
         <v>16</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1131,10 +1150,10 @@
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1146,10 +1165,10 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1161,86 +1180,84 @@
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>20</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
-        <v>21</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
-        <v>22</v>
-      </c>
-      <c r="C31" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="D31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>88</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1248,14 +1265,14 @@
     </row>
     <row r="33" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -1263,14 +1280,14 @@
     </row>
     <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1278,16 +1295,14 @@
     </row>
     <row r="35" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
-        <v>26</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C35" s="13"/>
       <c r="D35" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1295,110 +1310,104 @@
     </row>
     <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
-        <v>27</v>
-      </c>
-      <c r="C36" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>101</v>
+        <v>39</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>101</v>
+        <v>40</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>101</v>
+        <v>42</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <v>30</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
-        <v>31</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
+        <v>31</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="13"/>
       <c r="D42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1406,14 +1415,14 @@
     </row>
     <row r="43" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1421,74 +1430,73 @@
     </row>
     <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>101</v>
+        <v>47</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>101</v>
+        <v>48</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F45" s="3"/>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>36</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>50</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C46" s="13"/>
       <c r="D46" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>101</v>
+        <v>49</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
-        <v>38</v>
-      </c>
-      <c r="C48" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="D48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>101</v>
+        <v>51</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -1496,14 +1504,14 @@
     </row>
     <row r="49" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>101</v>
+        <v>52</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -1511,14 +1519,14 @@
     </row>
     <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>101</v>
+        <v>53</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -1526,14 +1534,14 @@
     </row>
     <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>101</v>
+        <v>54</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -1541,14 +1549,14 @@
     </row>
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>101</v>
+        <v>55</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -1556,16 +1564,14 @@
     </row>
     <row r="53" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
-        <v>43</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C53" s="13"/>
       <c r="D53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>101</v>
+        <v>56</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -1573,160 +1579,156 @@
     </row>
     <row r="54" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>101</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>101</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>101</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>101</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="16"/>
+        <v>99</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
-        <v>50</v>
-      </c>
-      <c r="C60" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D60" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
+    <row r="63" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>52</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>53</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="C64" s="13"/>
       <c r="D64" s="3" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -1738,10 +1740,10 @@
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -1753,13 +1755,12 @@
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="F66" s="10"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1768,35 +1769,29 @@
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="H67" s="3"/>
     </row>
     <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>57</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="C68" s="13"/>
       <c r="D68" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="H68" s="3"/>
     </row>
     <row r="69" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
@@ -1804,40 +1799,37 @@
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>101</v>
+        <v>67</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
+      <c r="B70" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
     </row>
     <row r="71" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -1845,14 +1837,14 @@
     </row>
     <row r="72" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -1860,14 +1852,14 @@
     </row>
     <row r="73" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -1875,283 +1867,273 @@
     </row>
     <row r="74" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
-        <v>62</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>38</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C74" s="13"/>
       <c r="D74" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>101</v>
+        <v>71</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="H74" s="3"/>
     </row>
     <row r="75" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
-        <v>63</v>
-      </c>
-      <c r="C75" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D75" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>101</v>
+        <v>72</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>101</v>
+        <v>73</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B77" s="3">
-        <v>65</v>
-      </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
-        <v>66</v>
-      </c>
-      <c r="C78" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="D78" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>101</v>
+        <v>75</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="3">
+        <v>65</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
     </row>
     <row r="80" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
-        <v>67</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>7</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C80" s="13"/>
       <c r="D80" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E80" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F80" s="3"/>
-      <c r="G80" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>68</v>
-      </c>
-      <c r="C81" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D81" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E82" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F82" s="3"/>
-      <c r="G82" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E83" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F83" s="3"/>
-      <c r="G83" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E84" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F84" s="3"/>
-      <c r="G84" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
-        <v>72</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>21</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C85" s="13"/>
       <c r="D85" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="3">
-        <v>73</v>
-      </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H86" s="3"/>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
     </row>
     <row r="87" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>74</v>
-      </c>
-      <c r="C87" s="13"/>
+        <v>72</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="D87" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F87" s="3"/>
-      <c r="G87" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G87" s="6"/>
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
-        <v>76</v>
-      </c>
-      <c r="C89" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="D89" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F89" s="3"/>
-      <c r="G89" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E90" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F90" s="3"/>
-      <c r="G90" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G90" s="6"/>
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
-        <v>78</v>
-      </c>
-      <c r="C91" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" s="17" t="s">
         <v>24</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -2159,120 +2141,119 @@
     </row>
     <row r="92" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F92" s="3"/>
-      <c r="G92" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G92" s="6"/>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E93" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F93" s="3"/>
-      <c r="G93" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G93" s="6"/>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
-        <v>81</v>
-      </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E94" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="C94" s="18"/>
+      <c r="D94" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="F94" s="3"/>
-      <c r="G94" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
-        <v>82</v>
-      </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>101</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" s="6"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F98" s="8" t="s">
-        <v>107</v>
+      <c r="F98" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F99" s="8" t="s">
-        <v>103</v>
+      <c r="F99" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F100" s="9"/>
+      <c r="F100" s="8"/>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="9"/>
+      <c r="F101" s="8"/>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F102" s="9"/>
+      <c r="F102" s="8"/>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F103" s="10" t="s">
-        <v>104</v>
+      <c r="F103" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="C48:C59"/>
+    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C71:C74"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="C53:C62"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:C78"/>
-    <mergeCell ref="C80:C84"/>
-    <mergeCell ref="C85:C90"/>
-    <mergeCell ref="C9:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B63:H63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
